--- a/model/帖子标签.xlsx
+++ b/model/帖子标签.xlsx
@@ -33,13 +33,13 @@
     <t>道顿堀是大阪地标，不小当地市民和旅客都会来到道顿堀。而道顿堀附近也会有大型的商场﹑小店﹑药妆﹑美食﹑餐厅等，应有尽有。而且价钱也不是很贵，所以每次来到大阪时都会来到道顿堀这儿走走！</t>
   </si>
   <si>
-    <t>心斋桥、道顿堀是大阪之行必定去逛街的购物点，单是行心斋桥商店街的平价药妆、服装店、精品屋都够行一两天，行到累了，必定要在这区寻找美食和小休的cafe！</t>
+    <t>这是一个相当大的购物中心，有很好的杂货店和酒类商店。不错的选择餐饮选择，有当地和西方的食物。美食广场非常干净而整洁，可供选择的美食不多。这里有着本地和国际服装品牌的完美结合，但没有高端品牌。在我们访问期间，价格没有太多的优惠。总之，这里是满足基本购物需求的好地方。</t>
   </si>
   <si>
     <t>大概是大阪最热闹的地方，是购物最好的去处，不管是药妆店、知名拉面店、观光行程，都可在这边体验，可惜店家很早就关门，如果要慢慢逛街的话，需要多排几天。</t>
   </si>
   <si>
-    <t>很热闹的地方 ，美食很多，有名的一兰，烧肉，螃蟹等等…、购物的好去处，药妆也很多家可选择。这里有河川 ，也可以搭水上巴士绕一圈，悠闲的看着沿路风景，很棒的体验。</t>
+    <t>作为无印良品旗舰店，多层次百货商店，这个生活用品商店（有些地方像Loft或是Tokyo Hands）有很多让你想占有的商品。按区域很好地分类开（服装，书籍，化妆品，文件，厨房配件等），甚至还有零食区和独立咖啡厅。我最喜欢的是书籍区，这里有一些流行的书名是日文的！价格非常实惠尽管我相信有些商品是中国制造。和家人一起来逛是一个不错的地方！</t>
   </si>
   <si>
     <t>如果去东京时间短，可以抽时间去呢个百货公司，就可以买到日本或国际名牌的化妆品和衣物，牌子都非常齐全，而最好是地库超市，是买手信食物亦是一个好地方，买完之后，全部做退税亦好方便。</t>
@@ -153,119 +153,22 @@
     <t>立山黑部阿尔卑斯山脉路线是一条贯穿北日本阿尔卑斯山的壮观路线，游客很多，到处都可以听到有人在说中文，山上的天气变化多端，对于常年生活在亚热带地区的我来说，壮丽的雪景真是让人永生难忘。</t>
   </si>
   <si>
-    <t>来到扇泽，只见红橙黄绿的山林色彩缤纷，令人感到秋天的光彩绚丽。然后坐电车上到黑部水库，更有一覧众山小的感觉。只是太阳还未照过来，未能一见水库上的彩虹！</t>
-  </si>
-  <si>
-    <t>在钟钧站下车后，顺着路标行走，就可以来到梦幻的野溪温泉，可能我到此的时间点太早了，河床两旁的枫树还没变红，这令我有点失望，不过，拉起裤管，把双脚泡在野溪，享受泡野溪温泉的乐趣也不错，以下几点建议:
-1&amp;gt;雨季要避开河床
-2&amp;gt;要带毛巾，泡完温泉擦脚用
-3&amp;gt;那里用餐较不方便，建议可带小点心，记得垃圾要自行带走
-4&amp;gt;尽可能及早预约上山小火车，当然，也可以临时排队购票，但何时可上车又就要靠运气了
-5&amp;gt;预定回程车票，可预留一点时间，可慢慢享受野溪温泉的乐趣</t>
+    <t>去的时候正值日本的枫叶季，做着观光小火车，穿梭在层染的山林中，不曾体会的悠然心情在周身荡漾。日本的园林景观不同于中国，说不出来的别有一番风味。渡月桥，竹林，怎么说呢，非常值得一去。</t>
+  </si>
+  <si>
+    <t>奥入濑溪流步道全程约14km，全程走完需要约4个多小时，步道的坡度很缓走起来蛮轻松，沿路可以欣赏黄叶与溪流、瀑布交织而成的各种美景，照片很难呈现置身其中的美好，绝对值得亲身来体验一次，若时间不多重点性的走一走也很好，子之口→白系瀑布以及云井瀑布→石户这两段都不错，要注意的是这里以黄叶为主红叶不多，且偏橘红色，有些人会有错误期待故提醒一下。
+另外下雨的话步道十分泥泞，建议天候状况不佳时务必携带雨鞋雨衣，若没有的话，要躲泥泞路面走车道时，也请尽量留意后方来车！当地人开车不会按喇叭，许多人不知道后方有车就这样大剌剌的挡在车道变路队长，十分不可取，自驾者也请不要把车临停在会挡到车道的地方，道路狭窄大车会很不好走，尤其是旺季时人车更多，挡住车道很容易塞车，一塞车大家心情都不好去了，拜托！请一起维护奥入濑溪流的美好体验，谢谢！</t>
   </si>
   <si>
     <t>天公作美，天朗气清，比预期的温度温暖些，虽然要花不少时间在六种交通工具，但沿途风景优美，适逢秋季，也可以欣赏红叶！
 由于昨天下了雪，所以地上有新雪，可以让我们尽情玩雪及留下深刻的脚步，然后小心谨慎地行去欣赏无敌雪山下的湖，真的靓得像Poster!</t>
   </si>
   <si>
-    <t>徒步攀登弥山沿途景色真的很漂亮。路上很多地方可以休息。非常享受令人惊叹的景色。我先乘坐了索道，然后攀爬剩余的部分。不过，徒步到达山顶也是可行的。</t>
-  </si>
-  <si>
-    <t>不幸的是当我们登上弥山的时候大雨倾盆而下，但是沿路的美丽树冠，加上放纵地吃光几公斤美味的日本食物的机会，都让这次出行变得值得。建议走Omoto路线，这条路看起来是最安静的一个，在接近顶峰前，我们没有看到任何人，早点开始，因为从上午十点左右，人群就不可避免的开始增加了。</t>
-  </si>
-  <si>
-    <t>我们去了米森山远足，一开始对这里的了解不是很多，但是我想说，如果你身体吃的消的话可以不搭乘缆车，因为有些美景是缆车上看不到的。我们很高兴我们最后抵达了535米处的天文台，这一天真的很愉快。</t>
-  </si>
-  <si>
-    <t>弥山，海拔535米高，在宫岛口跟案内所人员聊天，唯一男员工说他前一天去爬弥山，我问他要爬多久，他说有3个路缐，他爬最难的，单趟2.5小时，同一路线从码头出发，中途爬上驹之林，我爬了4小时22分钟才到弥山山顶，
-驹ケ林海拔509米高。</t>
-  </si>
-  <si>
-    <t>在山上有壮观的瀑布和树木。这条路是狭窄的和单线的，在峡谷附近，所以如果驾驶最好开慢一点，眼睛往外看看闲逛的猴子。此外，天气很潮湿，因为矢久岛是日本最潮湿的部分，并且shirataka海拔在700米以上。</t>
-  </si>
-  <si>
-    <t>青苔之森在白谷云水峡入面的，由入口行大约行两小时（因人而异）。幽灵公主的其中一个景点，，很美很有灵气的，很多青苔，好似去左童话世界一样，好梦幻，去白谷云水峡一定要去呀。</t>
-  </si>
-  <si>
-    <t>白谷云水峡我认为系去去屋久岛一定要去的地方，很有森林的感觉，宫崎骏老师的幽灵公主都是在这森林取材的，很美很有灵气的一个地方，加上我们很好彩有落雨，行起上来都舒服些，这里很多青苔，很多大大树，很多山涧，很美呀，不过很滑记住着行山鞋呀。</t>
-  </si>
-  <si>
-    <t>所有路线，要约七小时才能完成，不习惯行山路的人会觉得有点吃力，但景色无何比拟，翠绿环绕，气清木老，单青苔就有超过五百种。溪水可以随手搯喝，澄净清凉，心脾俱醒。这里是到屋久屋绝对不可以错过的景点。</t>
-  </si>
-  <si>
-    <t>这是我们在屋久岛的第一个徒步旅行，我们真的非常享受，风景很有趣，有众多古树和茂密的植被。尽管我觉得这里对体力有点挑战性，但我们还是看到许多家庭带上孩子一起徒步。你可以选择不同长度的路径，但我建议你一直走到最后，站在大石头上你可以看到整个山谷的壮观景色。</t>
-  </si>
-  <si>
-    <t>即使没有自驾游，都可以轻松到逹白谷云水峡。巴士原本班次为一小时一班左右，但我去的当天增加了很多班次，不过不清楚实际时间如何。到了白谷云水峡的入口，付了入场费后就起行了。附近亦有推介的不同路线。我们选择了最远的路线，去太鼓岩然后沿途折返，时间为4小时。很幸运当天天气很好。一路上都可以享受周围的景色。因为屋久岛长期下雨的气候令白谷云水峡成为一个满布青苔的环境，感觉好神秘，好美。未离开已经好想再次到访。一路上都未见到任何垃圾，很干净，到访的人十分自律。但可能因为停下拍照旳关系，用了5小时才完成整段路线，4小时实在太匆忙了。</t>
-  </si>
-  <si>
-    <t>对每个人来说，这都是一次非常容易的丛林之旅。如果你健健康康，那你将会在3个小时内完成整个旅行。要是还有时间，并且体力不错，你也可以徒步走到Jomon Sugi。如果够幸运，你会看到猴子的！</t>
-  </si>
-  <si>
-    <t>真的是无法用语言来深刻的描述这里。来这里的每个人都会说这里是地球上最美的地方。当然，去小路的最高处远眺风景真的非常的值得！！如果你有机会的话一定要来这儿，真的是非常值得的的旅行，来这儿旅行的价格也还算实惠！提示一下：巴士是早上的8点到晚上的4点运营，好几个路线可能需要花费一天的时间，所以最起码要计划出两天的时间或者租辆车。我们只有一天时间，坐个巴士但是确实很值得！！！！！但是如果下次还来这里的话我租个车子，这样能到更多的风景。这里的地理位置也很不错！</t>
-  </si>
-  <si>
-    <t>这里跟宫崎俊笔下的幽灵公主一样，充满惊奇惊喜，景色优美。一般人会坐车到白谷云水峡入去。但亦可以由荒川登山口经楠川分岐入辻峠，再入太鼓岩及苔之森。
-沿途景色优美，空气清新，只要装备齐全，行山杖，防水褛，行山鞋，食物及水带备，便可轻松享受大自然的伟大。</t>
-  </si>
-  <si>
-    <t>看过宫崎骏的幽灵公主一定会很喜欢这儿。其实落屋久岛的人大概也知道白谷云水峡内的青苔树林就是幽灵公主场景的蓝本。中肯地说拍摄出来的相片比肉眼看到的真实景象是更美丽的。哈哈！但那里空气实在太清新而且四周一片绿油油，只要睁开眼睛四处观看都很舒服！这条路线基本上没有什么难度适合亲子一齐行。</t>
-  </si>
-  <si>
-    <t>有稍微看过一点Yabiji的介绍，可是亲眼看到的时候感觉超乎想象。站在船上就可以看到10米左右的海底，大片的珊瑚，鱼群，海龟，鲨鱼……感觉像一个无尽的宝藏。
-很帅的船长Kento带着我们，每天的行程都超赞，每天看到新鲜的景色，超享受吹着海风出发的时刻。
-现在又在计划八月再去找他们潜水……太怀念那片海了！</t>
-  </si>
-  <si>
-    <t>我们去珊瑚礁那边参加的是Mare cruise的船之旅，并且孩子也可以参加这个。我们在船长推荐的不同的地点做了三次浮潜。花费大概是成年人10000日元和孩子8000日圆。它包括美味的午餐和甜点。那有非常美丽的珊瑚海，很多鱼类。</t>
-  </si>
-  <si>
-    <t>这里的海滩非常漂亮，风景优美，并且水声潺潺！这里的珊瑚礁现在受到保护，因为许多人与珊瑚礁接触而导致其死亡......可能是人们触摸它，所以它开始被污染，并且被染上其他颜色......当我们在那里时，我们没有看到那么多的鱼，但这里确实值得参观......在这里，你可以看到岸边大约10条左右的珊瑚鱼！</t>
-  </si>
-  <si>
-    <t>从那霸搭船至座间味岛需2小船（快船1小时但很难订到位），再乘公车10分钟可抵达海滩，海滩非常美，海水能见度超高，潜进水中可直接看到鱼儿，再往深一点的地方鱼儿更多更大....建议在岛上住一晚，当天来回实在不够玩～</t>
-  </si>
-  <si>
-    <t>二月初不是游泳的旺季，座间味岛游客很少，这天下午整片沙滩只有我们两个人，空旷又安静，沙粒细致舒服，坐在海边，眼前只有蓝绿色的海和岛，很平静。</t>
-  </si>
-  <si>
-    <t>海滩是非常迷人的，浮潜是非常美妙的，因为有许多鱼、海星、蛤蜊和海参栖息在珊瑚之中。这个团队还经营着租赁浮潜设备的摊位（他们出租海滩太阳伞，水下相机，沙滩椅等）是非常友好的，并提出免费保管我们的贵重物品。他们甚至还给了一张小的野餐垫！如果你计划骑自行车来这里，但你不是骑得非常好，我的建议是骑车到山脚下，因为接下来的道路开始上升，剩下的路你可以走完。我发现很难控制自行车下坡，因为道路是陡峭的，总而言之，这是度过一个下午的好地方。</t>
-  </si>
-  <si>
-    <t>这里的海真的很清澈透明! 在沙滩上散步看着海浪打上来觉得很放松， 也可以租借(或自带)浮潜装备在这里浮潜， 算是在岛上很热门的景点</t>
-  </si>
-  <si>
-    <t>我与我的丈夫参观了furuzamami海滩，我们爱它！海滩几乎是透明的，我们看到了如此多鱼。有出租的小商铺，你可以租浮潜齿轮。我丈夫和我从furuzamami海滩走到了港口，风景是如此美丽。我们走了大约20-30分钟，这座山的斜坡很难爬，但很安静又平静！</t>
-  </si>
-  <si>
-    <t>这是一片美丽的海滩。洁白的沙子，幽静的水域。沙滩上满是珊瑚！我们在三月末的时候到此一游，这里很安静，几乎没有其他游客。这是一座很小的没有人工痕迹的岛屿，就像是一颗隐匿的珠宝。不要期望这里有豪华大酒店或者餐厅，但是如果你到这个地区来玩的话，绝对值得在这片海滩过夜。乘坐快速渡轮的话大约50分钟就能到了。如果你喜欢水上运动，比如泛舟、潜水什么的，这个岛上有很多选择，但是如果你想找度假村的话就不太合适你了。</t>
-  </si>
-  <si>
-    <t>很美的海滩，可以给小朋友挖沙子玩，也可以浮潜。水下环境不错，珊瑚礁上鱼很多，尼莫长得非常大。海水清澈，比东南亚很多地方都要好。
-岸边可以租伞和沙滩椅，还有全套浮潜装备都可以租到。</t>
-  </si>
-  <si>
-    <t>十月份造访，天气微冷，但是景观非常漂亮！有点像是南投忘忧森林的感觉，瀑布与枫叶的搭配，会让你忘掉时间的存在。</t>
-  </si>
-  <si>
-    <t>奥入濑溪流步道全程约14km，全程走完需要约4个多小时，步道的坡度很缓走起来蛮轻松，沿路可以欣赏黄叶与溪流、瀑布交织而成的各种美景，照片很难呈现置身其中的美好，绝对值得亲身来体验一次，若时间不多重点性的走一走也很好，子之口→白系瀑布以及云井瀑布→石户这两段都不错，要注意的是这里以黄叶为主红叶不多，且偏橘红色，有些人会有错误期待故提醒一下。
-另外下雨的话步道十分泥泞，建议天候状况不佳时务必携带雨鞋雨衣，若没有的话，要躲泥泞路面走车道时，也请尽量留意后方来车！当地人开车不会按喇叭，许多人不知道后方有车就这样大剌剌的挡在车道变路队长，十分不可取，自驾者也请不要把车临停在会挡到车道的地方，道路狭窄大车会很不好走，尤其是旺季时人车更多，挡住车道很容易塞车，一塞车大家心情都不好去了，拜托！请一起维护奥入濑溪流的美好体验，谢谢！</t>
-  </si>
-  <si>
-    <t>我们沿着小溪开车。沿路有很多漂亮的瀑布。景色不是很惊人，但是平静，密切。沿着小溪还有美丽的小道，但是当我们去那里的时候，路面很潮湿，所以我们没有在上面走。</t>
-  </si>
-  <si>
     <t>四月去奥入瀬溪还可以看到残雪，树木虽然只有稀疏的叶子，但是可以看到一些新芽萌发，譲人感到大自然的生命力之美，沿途可以看到原始森林丶溪流及奇岩怪石，走起来也很舒适及轻松。
 虽然奥入濑溪的红叶之美是众所皆知，但是此时却可以让你欣赏到的是另一萧飒之美，不过，一定要去走上两三小时才能真正看到它的美。</t>
   </si>
   <si>
-    <t>环境十分优美、宁静、在散步道上步行能欣赏多条瀑布，铫子瀑布、白绢瀑布、白布瀑布、九段瀑布、不老瀑布、云井瀑布......令人心旷神怡。</t>
-  </si>
-  <si>
-    <t>我们在十和田湖泊车，便搭巴士到奥入濑溪流的起点开始行程。当日是星期四，不算太迫人。红叶配合溪流，无得输，同前年夏天来是两个景象。</t>
-  </si>
-  <si>
-    <t>自驾到奥入濑溪，沿途的风景真的很美，几个知名的瀑布也ㄧ定要驻足欣赏，可惜四月到访时仍有寒意，但是萧条景色也另有一番风味，相信枫红的时候一定是绝美的赏枫景点。</t>
+    <t>不幸的是当我们登上弥山的时候大雨倾盆而下，但是沿路的美丽树冠，加上放纵地吃光几公斤美味的日本食物的机会，都让这次出行变得值得。建议走Omoto路线，这条路看起来是最安静的一个，在接近顶峰前，我们没有看到任何人，早点开始，因为从上午十点左右，人群就不可避免的开始增加了。</t>
   </si>
   <si>
     <t>奥入濑溪流，真是健行踏青的最好去处，从青森或八户坐JR巴士可以轻松抵达，不过要注意的是，公车冬天不开，且从青森过来花的时间会更久。
@@ -274,13 +177,104 @@
 整体来说，这里真是一个健行天堂，有山有水有瀑布，强烈建议不要向旅行团那样坐车到石之户下来走马看花就马上闪人，要了解奥入濑溪流的好</t>
   </si>
   <si>
-    <t>先前两回来访，都在炎夏，但清澈水流，两岸翠树绿叶以及瀑布景观就留下深刻印象. 这回适逢秋枫盛季来访，由十和田溪口沿溪慢行约两个小时，更是让我叹为观止!</t>
-  </si>
-  <si>
     <t>秋天，这里很美。我们在秋天里叶子颜色最美的几周前来的，但是仍然享受到一些红色和橘色的树叶。预计有许多其他的旅客会在秋天展现它的颜色时来这里，特别是在小径旁一些受欢迎的景点（瀑布等）。非常简单的小道。整个长度的小道都很漂亮。我们从Shin Aomori坐小巴士到这儿。路途上有许多站。从Nenokuchi上车（离湖水流入小溪处很近的小镇）到完成旅行返回hin Aomori 需要花大概3个小时的时间。下次我要租个车自己开。</t>
   </si>
   <si>
-    <t>亨利摩尔和安迪葛姆雷的大型雕塑作品陈列在这个公园的周围。如果下雨的话，会有一些其他作品展览，毕加索作品也在其中。附近还有一个很不错的咖啡厅。</t>
+    <t>在山上有壮观的瀑布和树木。这条路是狭窄的和单线的，在峡谷附近，所以如果驾驶最好开慢一点，眼睛往外看看闲逛的猴子。此外，天气很潮湿，因为矢久岛是日本最潮湿的部分，并且shirataka海拔在700米以上。</t>
+  </si>
+  <si>
+    <t>青苔之森在白谷云水峡入面的，由入口行大约行两小时（因人而异）。幽灵公主的其中一个景点，，很美很有灵气的，很多青苔，好似去左童话世界一样，好梦幻，去白谷云水峡一定要去呀。</t>
+  </si>
+  <si>
+    <t>白谷云水峡我认为系去去屋久岛一定要去的地方，很有森林的感觉，宫崎骏老师的幽灵公主都是在这森林取材的，很美很有灵气的一个地方，加上我们很好彩有落雨，行起上来都舒服些，这里很多青苔，很多大大树，很多山涧，很美呀，不过很滑记住着行山鞋呀。</t>
+  </si>
+  <si>
+    <t>所有路线，要约七小时才能完成，不习惯行山路的人会觉得有点吃力，但景色无何比拟，翠绿环绕，气清木老，单青苔就有超过五百种。溪水可以随手搯喝，澄净清凉，心脾俱醒。这里是到屋久屋绝对不可以错过的景点。</t>
+  </si>
+  <si>
+    <t>这是我们在屋久岛的第一个徒步旅行，我们真的非常享受，风景很有趣，有众多古树和茂密的植被。尽管我觉得这里对体力有点挑战性，但我们还是看到许多家庭带上孩子一起徒步。你可以选择不同长度的路径，但我建议你一直走到最后，站在大石头上你可以看到整个山谷的壮观景色。</t>
+  </si>
+  <si>
+    <t>即使没有自驾游，都可以轻松到逹白谷云水峡。巴士原本班次为一小时一班左右，但我去的当天增加了很多班次，不过不清楚实际时间如何。到了白谷云水峡的入口，付了入场费后就起行了。附近亦有推介的不同路线。我们选择了最远的路线，去太鼓岩然后沿途折返，时间为4小时。很幸运当天天气很好。一路上都可以享受周围的景色。因为屋久岛长期下雨的气候令白谷云水峡成为一个满布青苔的环境，感觉好神秘，好美。未离开已经好想再次到访。一路上都未见到任何垃圾，很干净，到访的人十分自律。但可能因为停下拍照旳关系，用了5小时才完成整段路线，4小时实在太匆忙了。</t>
+  </si>
+  <si>
+    <t>对每个人来说，这都是一次非常容易的丛林之旅。如果你健健康康，那你将会在3个小时内完成整个旅行。要是还有时间，并且体力不错，你也可以徒步走到Jomon Sugi。如果够幸运，你会看到猴子的！</t>
+  </si>
+  <si>
+    <t>真的是无法用语言来深刻的描述这里。来这里的每个人都会说这里是地球上最美的地方。当然，去小路的最高处远眺风景真的非常的值得！！如果你有机会的话一定要来这儿，真的是非常值得的的旅行，来这儿旅行的价格也还算实惠！提示一下：巴士是早上的8点到晚上的4点运营，好几个路线可能需要花费一天的时间，所以最起码要计划出两天的时间或者租辆车。我们只有一天时间，坐个巴士但是确实很值得！！！！！但是如果下次还来这里的话我租个车子，这样能到更多的风景。这里的地理位置也很不错！</t>
+  </si>
+  <si>
+    <t>这里跟宫崎俊笔下的幽灵公主一样，充满惊奇惊喜，景色优美。一般人会坐车到白谷云水峡入去。但亦可以由荒川登山口经楠川分岐入辻峠，再入太鼓岩及苔之森。
+沿途景色优美，空气清新，只要装备齐全，行山杖，防水褛，行山鞋，食物及水带备，便可轻松享受大自然的伟大。</t>
+  </si>
+  <si>
+    <t>看过宫崎骏的幽灵公主一定会很喜欢这儿。其实落屋久岛的人大概也知道白谷云水峡内的青苔树林就是幽灵公主场景的蓝本。中肯地说拍摄出来的相片比肉眼看到的真实景象是更美丽的。哈哈！但那里空气实在太清新而且四周一片绿油油，只要睁开眼睛四处观看都很舒服！这条路线基本上没有什么难度适合亲子一齐行。</t>
+  </si>
+  <si>
+    <t>有稍微看过一点Yabiji的介绍，可是亲眼看到的时候感觉超乎想象。站在船上就可以看到10米左右的海底，大片的珊瑚，鱼群，海龟，鲨鱼……感觉像一个无尽的宝藏。
+很帅的船长Kento带着我们，每天的行程都超赞，每天看到新鲜的景色，超享受吹着海风出发的时刻。
+现在又在计划八月再去找他们潜水……太怀念那片海了！</t>
+  </si>
+  <si>
+    <t>西表岛是八重山群岛的主要岛屿之一，它是一个可以同时兼具冒险与放松的好地方。美丽蔚蓝的沙滩、飘着红叔叶子的河流以及更多不错的风景。比石垣岛还要大的岛屿， 有两个码头， 船程约40分钟， 岛上保留着自然景观， 有瀑布， 有丛林， 河流， 沙滩等</t>
+  </si>
+  <si>
+    <t>这里的海滩非常漂亮，风景优美，并且水声潺潺！这里的珊瑚礁现在受到保护，因为许多人与珊瑚礁接触而导致其死亡......可能是人们触摸它，所以它开始被污染，并且被染上其他颜色......当我们在那里时，我们没有看到那么多的鱼，但这里确实值得参观......在这里，你可以看到岸边大约10条左右的珊瑚鱼！</t>
+  </si>
+  <si>
+    <t>从那霸搭船至座间味岛需2小船（快船1小时但很难订到位），再乘公车10分钟可抵达海滩，海滩非常美，海水能见度超高，潜进水中可直接看到鱼儿，再往深一点的地方鱼儿更多更大....建议在岛上住一晚，当天来回实在不够玩～</t>
+  </si>
+  <si>
+    <t>二月初不是游泳的旺季，座间味岛游客很少，这天下午整片沙滩只有我们两个人，空旷又安静，沙粒细致舒服，坐在海边，眼前只有蓝绿色的海和岛，很平静。</t>
+  </si>
+  <si>
+    <t>海滩是非常迷人的，浮潜是非常美妙的，因为有许多鱼、海星、蛤蜊和海参栖息在珊瑚之中。这个团队还经营着租赁浮潜设备的摊位（他们出租海滩太阳伞，水下相机，沙滩椅等）是非常友好的，并提出免费保管我们的贵重物品。他们甚至还给了一张小的野餐垫！如果你计划骑自行车来这里，但你不是骑得非常好，我的建议是骑车到山脚下，因为接下来的道路开始上升，剩下的路你可以走完。我发现很难控制自行车下坡，因为道路是陡峭的，总而言之，这是度过一个下午的好地方。</t>
+  </si>
+  <si>
+    <t>Okinawa附近非常漂亮的小岛。珊瑚和所有鱼类都很漂亮平静，展示给你最好的一面。景色非常美丽，你可以潜水，浮潜，骑自行车或者是散步。当地人都很友善但是不会说英语。但是在港口的旅游办公室有个英国人，会告诉你你想知道的所有东西。而且整个岛都有免费</t>
+  </si>
+  <si>
+    <t>我与我的丈夫参观了furuzamami海滩，我们爱它！海滩几乎是透明的，我们看到了如此多鱼。有出租的小商铺，你可以租浮潜齿轮。我丈夫和我从furuzamami海滩走到了港口，风景是如此美丽。我们走了大约20-30分钟，这座山的斜坡很难爬，但很安静又平静！</t>
+  </si>
+  <si>
+    <t>这是一片美丽的海滩。洁白的沙子，幽静的水域。沙滩上满是珊瑚！我们在三月末的时候到此一游，这里很安静，几乎没有其他游客。这是一座很小的没有人工痕迹的岛屿，就像是一颗隐匿的珠宝。不要期望这里有豪华大酒店或者餐厅，但是如果你到这个地区来玩的话，绝对值得在这片海滩过夜。乘坐快速渡轮的话大约50分钟就能到了。如果你喜欢水上运动，比如泛舟、潜水什么的，这个岛上有很多选择，但是如果你想找度假村的话就不太合适你了。</t>
+  </si>
+  <si>
+    <t>很美的海滩，可以给小朋友挖沙子玩，也可以浮潜。水下环境不错，珊瑚礁上鱼很多，尼莫长得非常大。海水清澈，比东南亚很多地方都要好。
+岸边可以租伞和沙滩椅，还有全套浮潜装备都可以租到。</t>
+  </si>
+  <si>
+    <t>虽然已经去过好几次的迪士尼，海洋迪士尼还是第一次，不论是地中海地区的海盗喷水，还是排两个小时的玩具总动员，尼莫的海底巡洋艇，艾丽儿的剧场都是目不暇给，海洋欢乐秀，夜间的烟火水花秀大家认真又又超水准的设计，从早到深夜全家都舍不得离开</t>
+  </si>
+  <si>
+    <t>作为唯一的迪斯尼海洋主题乐园，整体设计很有特色，无论是中心景观大火山还是阿拉丁的中东区、美人鱼礁、美国街道，都很有特色！游乐项目和餐饮也值得很细，让人很舒服。中午可以进入室内的美人鱼区和旁边的神灯剧场避暑，晚上一定要看火山前地中海特色的夜景，真是很美妙！另外听说正在修建新的海底总动员的项目，还在路上看到了藏起来的章鱼汉克。很令人期待。</t>
+  </si>
+  <si>
+    <t>我在主题公园行业工作了几十年，这个公园是我最喜欢的。从游客的角度来看，成人、青少年和儿童有很多吸引人的地方。全新的惊险刺激，经典的独特游乐设施，周围都是整洁的花园和良好的庭院。从专业角度看，这是我所见过的最完美的公园。对安全和清洁的强烈关注使这个公园脱颖而出。我迫不及待地想再来一次。</t>
+  </si>
+  <si>
+    <t>迪斯尼乐园里的米奇老鼠家很有人气，做好在人少的时候排队。米妮的家是随便自由进去的 女孩子一定很喜欢 都是粉色的感觉 还有化妆台 厨房和冰箱。小一点的孩子这还有一个小游乐场 可以奇玩偶玩玩。和米奇见面握手拍照要排好长时间 最好一个家长等 另一个带孩子玩儿 到时间了再汇合比较好。白雪公主的城堡是一定要去看看的 女孩子一定都喜欢 玻璃鞋子和公主椅子哦 穿上礼服的女孩子还会给贴个名字的贴纸 cast会向你打招呼哦</t>
+  </si>
+  <si>
+    <t>东京迪斯尼乐园和美国迪斯尼乐园很相似，但是同时也具有独特性。我是在新年去的，参加新年活动很棒。如果可以的话我建议新年去。他们在辛德瑞拉城堡有一个非常棒的演出，是东京迪斯尼独有的，这是我看过最棒的表演。唯一的遗憾是烟火表演由于可能出现大风取消了，很不走运。游乐设施都是日本的，在我看来使它变得更加有趣，但是需要加以注意。我非常推荐这里！</t>
+  </si>
+  <si>
+    <t>我只去过一次香港的迪士尼乐园，不过东京的真的不一样，好一些。可以上网看一下最好的路线，确保尽可能地使用快速通道，因为排队会很长。我们最喜欢的一站就是星际之旅。表演很棒。我个人最喜欢的则是最后的童话王国和电动灯巡游。一定要给这两个项目点赞!</t>
+  </si>
+  <si>
+    <t>这里是一个很大型有很多游乐场的大公园，游客可以玩很多长滑梯，秋千，沙，跳弹床，嬉水池，大型水上乐园，踏单车，绳网，我的小朋友玩到乐而忘返，来这里最好预2天时间，一日玩水一日玩其他游戏设施，这里旁边还有水族馆和酒店，自成一角，非常值得一来，JR列车直达公园门口，非常方便。</t>
+  </si>
+  <si>
+    <t>我们在3月的一个星期六去，竟然人流也不多。公园很大很大，很多设施可以玩。小朋友的弹床、滑梯、绳网、赛车很好玩。草地很多，买些食物来野餐很写意。草地上小朋友在打球和玩飞碟，还有日本的小朋友在放自制的A4纸风筝，很有趣。水上乐园和水族馆要夏天才开放，蔷薇园内的花也还未开，但游乐场和动物园已经可以玩一天了。如果夏天来，真要事先计划和取舍一下行程。</t>
+  </si>
+  <si>
+    <t>想不到中文是叫娱乐城，好土耶…但里面真的不土！我下午4点到，买了较便宜的票入场，玩到人家关门，都已经玩了大部份的attraction。我是因为进击的巨人主题才入场，基本上大型好玩的attraction都要等上超过半小时。大人小孩都有适合的游戏！</t>
+  </si>
+  <si>
+    <t>日间游行与夜间游行看不腻。童话之夜好精采，灰姑娘城堡跃升为故事书，配上声光与烟火，令人难忘。巴斯光年星际历险很好玩。星际旅行3D影像做得好逼真 。仙履奇缘童话大厅，宛如进入童话世界中。我们还玩了星星火箭、小飞象、爱丽丝的午茶派对、小小世界、城堡旋转木马......等游乐设施。去的那天遇到雨天，迪士尼的员工好专业，雨一停，马上开始擦椅子、擦栏杆、清地面的水，尽管等一下又下雨了。迪士尼是一个让人欢乐的地方，好羨慕有迪士尼的国家呀！</t>
+  </si>
+  <si>
+    <t>我们最近来到当地，就到了附近的车站，地理位置很方便，到车站去只有五分钟左右的时间，而且非常容易找到，路上费用，大概是三百块钱，他们还给你送来了一个小礼物，整个博物馆保存的非常完好，用英语写的介绍并不是很多，但是有很多展览能够讲述关于当地的历史文化，导游也相当不错，让我加深了对当地的了解，周围环境也非常好，可以选择在附近散步，景色十分宜人，值得推荐</t>
   </si>
   <si>
     <t>箱根有好几个艺术画廊和博物馆，都宣传得不错，但如果你的时间只够参观一个，那么你就应该参观箱根露天博物馆。（免责声明，我没有实际访问其他博物馆和画廊，其他的可能也挺棒的，尽管如此，我还是觉得你应该花时间来这里看看）。这里有超多的当代雕塑，遍布这个博物馆的四处，还有毕加索画廊和其他室内画廊在此轮流展览。这里甚至还有一个免费的温泉足浴，让你在漫步之间泡泡脚。这里真的很棒，游览时间大概为几个小时。</t>
@@ -366,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -379,6 +373,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -397,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -420,13 +419,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -436,11 +522,41 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,6 +577,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1525,14 +1642,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="246.35" customHeight="1">
@@ -1542,806 +1659,1109 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="246.35" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>2</v>
       </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" ht="128.6" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="10">
         <v>3</v>
       </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="274.9" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>4</v>
       </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="246.35" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>2</v>
       </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="176.35" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>5</v>
       </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="148.35" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" t="s" s="11">
         <v>6</v>
       </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="148.35" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>7</v>
       </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="149.15" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>8</v>
       </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="176.35" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>9</v>
       </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="302.35" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>10</v>
       </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" ht="164" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>2</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>11</v>
       </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" ht="190.6" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>2</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>12</v>
       </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" ht="163.75" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>13</v>
       </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" ht="148.35" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" ht="162.35" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>15</v>
       </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" ht="204.35" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>16</v>
       </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" ht="248.3" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>17</v>
       </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" ht="198.35" customHeight="1">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="10">
         <v>18</v>
       </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" ht="212.35" customHeight="1">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="10">
         <v>19</v>
       </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" ht="246.35" customHeight="1">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>2</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>20</v>
       </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" ht="148.35" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>21</v>
       </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" ht="120.6" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>22</v>
       </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" ht="204.35" customHeight="1">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" ht="269.45" customHeight="1">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>3</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="10">
         <v>24</v>
       </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" ht="134.6" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" ht="148.35" customHeight="1">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" ht="171.15" customHeight="1">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>3</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="10">
         <v>27</v>
       </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" ht="219.15" customHeight="1">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" ht="190.35" customHeight="1">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" ht="219.15" customHeight="1">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" ht="232.35" customHeight="1">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>4</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" ht="134.35" customHeight="1">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>4</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>31</v>
       </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" ht="247.15" customHeight="1">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>4</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>32</v>
       </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" ht="794.9" customHeight="1">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>4</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="10">
         <v>33</v>
       </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" ht="377.15" customHeight="1">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>4</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="10">
         <v>34</v>
       </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" ht="190.35" customHeight="1">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>4</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>35</v>
       </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" ht="162.35" customHeight="1">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>4</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>36</v>
       </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" ht="218.6" customHeight="1">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>4</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" ht="176.35" customHeight="1">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>4</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>38</v>
       </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" ht="274.6" customHeight="1">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>4</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>39</v>
       </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" ht="246.35" customHeight="1">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>5</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>40</v>
       </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" ht="564.85" customHeight="1">
-      <c r="A43" s="3">
+      <c r="A43" s="6">
         <v>5</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="10">
         <v>41</v>
       </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" ht="176.35" customHeight="1">
-      <c r="A44" s="3">
+      <c r="A44" s="6">
         <v>5</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" ht="148.35" customHeight="1">
-      <c r="A45" s="3">
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" ht="252.75" customHeight="1">
+      <c r="A45" s="6">
         <v>5</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="11">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" ht="382" customHeight="1">
-      <c r="A46" s="3">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" ht="435.1" customHeight="1">
+      <c r="A46" s="6">
         <v>5</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="10">
         <v>44</v>
       </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" ht="198.35" customHeight="1">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>5</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="10">
         <v>45</v>
       </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" ht="148.35" customHeight="1">
-      <c r="A48" s="3">
+      <c r="A48" s="6">
         <v>5</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>46</v>
       </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" ht="246.6" customHeight="1">
-      <c r="A49" s="3">
+      <c r="A49" s="6">
         <v>5</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>47</v>
       </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" ht="176.6" customHeight="1">
-      <c r="A50" s="3">
+      <c r="A50" s="6">
         <v>5</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>48</v>
       </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" ht="199.75" customHeight="1">
-      <c r="A51" s="3">
+      <c r="A51" s="6">
         <v>5</v>
       </c>
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="10">
         <v>49</v>
       </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" ht="176.6" customHeight="1">
-      <c r="A52" s="3">
+      <c r="A52" s="6">
         <v>6</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>50</v>
       </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" ht="162.35" customHeight="1">
-      <c r="A53" s="3">
+      <c r="A53" s="6">
         <v>6</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>51</v>
       </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" ht="218.35" customHeight="1">
-      <c r="A54" s="3">
+      <c r="A54" s="6">
         <v>6</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>52</v>
       </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" ht="190.35" customHeight="1">
-      <c r="A55" s="3">
+      <c r="A55" s="6">
         <v>6</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>53</v>
       </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" ht="232.35" customHeight="1">
-      <c r="A56" s="3">
+      <c r="A56" s="6">
         <v>6</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>54</v>
       </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" ht="471.15" customHeight="1">
-      <c r="A57" s="3">
+      <c r="A57" s="6">
         <v>6</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>55</v>
       </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" ht="177.15" customHeight="1">
-      <c r="A58" s="3">
+      <c r="A58" s="6">
         <v>6</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>56</v>
       </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" ht="414.9" customHeight="1">
-      <c r="A59" s="3">
+      <c r="A59" s="6">
         <v>6</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>57</v>
       </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" ht="224.35" customHeight="1">
-      <c r="A60" s="3">
+      <c r="A60" s="6">
         <v>6</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="10">
         <v>58</v>
       </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" ht="260.35" customHeight="1">
-      <c r="A61" s="3">
+      <c r="A61" s="6">
         <v>6</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>59</v>
       </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" ht="241.75" customHeight="1">
-      <c r="A62" s="3">
+      <c r="A62" s="6">
         <v>7</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="10">
         <v>60</v>
       </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" ht="205.45" customHeight="1">
-      <c r="A63" s="3">
+      <c r="A63" s="6">
         <v>7</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>61</v>
       </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" ht="247.45" customHeight="1">
-      <c r="A64" s="3">
+      <c r="A64" s="6">
         <v>7</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>62</v>
       </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" ht="191.45" customHeight="1">
-      <c r="A65" s="3">
+      <c r="A65" s="6">
         <v>7</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>63</v>
       </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" ht="134.35" customHeight="1">
-      <c r="A66" s="3">
+      <c r="A66" s="6">
         <v>7</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>64</v>
       </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" ht="386.35" customHeight="1">
-      <c r="A67" s="3">
+      <c r="A67" s="6">
         <v>7</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" ht="121.45" customHeight="1">
-      <c r="A68" s="3">
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" ht="208.45" customHeight="1">
+      <c r="A68" s="6">
         <v>7</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>66</v>
       </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" ht="219.15" customHeight="1">
-      <c r="A69" s="3">
+      <c r="A69" s="6">
         <v>7</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>67</v>
       </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" ht="358.6" customHeight="1">
-      <c r="A70" s="3">
+      <c r="A70" s="6">
         <v>7</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" ht="156.35" customHeight="1">
-      <c r="A71" s="3">
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" ht="169.55" customHeight="1">
+      <c r="A71" s="6">
         <v>7</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="10">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" ht="106.35" customHeight="1">
-      <c r="A72" s="3">
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" ht="156.75" customHeight="1">
+      <c r="A72" s="6">
         <v>8</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" ht="588.9" customHeight="1">
-      <c r="A73" s="3">
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" ht="276.55" customHeight="1">
+      <c r="A73" s="6">
         <v>8</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="10">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" ht="148.35" customHeight="1">
-      <c r="A74" s="3">
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" ht="227" customHeight="1">
+      <c r="A74" s="6">
         <v>8</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>72</v>
       </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" ht="240.35" customHeight="1">
-      <c r="A75" s="3">
+      <c r="A75" s="6">
         <v>8</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="10">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" ht="134.6" customHeight="1">
-      <c r="A76" s="3">
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" ht="256.15" customHeight="1">
+      <c r="A76" s="6">
         <v>8</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" ht="134.35" customHeight="1">
-      <c r="A77" s="3">
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" ht="206.5" customHeight="1">
+      <c r="A77" s="6">
         <v>8</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" ht="148.35" customHeight="1">
-      <c r="A78" s="3">
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" ht="238.6" customHeight="1">
+      <c r="A78" s="6">
         <v>8</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" ht="850.9" customHeight="1">
-      <c r="A79" s="3">
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" ht="295.8" customHeight="1">
+      <c r="A79" s="6">
         <v>8</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="10">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" ht="134.6" customHeight="1">
-      <c r="A80" s="3">
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" ht="186.1" customHeight="1">
+      <c r="A80" s="6">
         <v>8</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>78</v>
       </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" ht="345.45" customHeight="1">
-      <c r="A81" s="3">
+      <c r="A81" s="6">
         <v>8</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" ht="134.35" customHeight="1">
-      <c r="A82" s="3">
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" ht="233.8" customHeight="1">
+      <c r="A82" s="6">
         <v>9</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>80</v>
       </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" ht="358.35" customHeight="1">
-      <c r="A83" s="3">
+      <c r="A83" s="6">
         <v>9</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>81</v>
       </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" ht="317.15" customHeight="1">
-      <c r="A84" s="3">
+      <c r="A84" s="6">
         <v>9</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>82</v>
       </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="9"/>
     </row>
     <row r="85" ht="232.6" customHeight="1">
-      <c r="A85" s="3">
+      <c r="A85" s="6">
         <v>9</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>83</v>
       </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="9"/>
     </row>
     <row r="86" ht="380.35" customHeight="1">
-      <c r="A86" s="3">
+      <c r="A86" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="10">
         <v>84</v>
       </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" ht="844.3" customHeight="1">
-      <c r="A87" s="3">
+      <c r="A87" s="6">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="10">
         <v>85</v>
       </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" ht="470.9" customHeight="1">
-      <c r="A88" s="3">
+      <c r="A88" s="6">
         <v>9</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>86</v>
       </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" ht="470.9" customHeight="1">
-      <c r="A89" s="3">
+      <c r="A89" s="6">
         <v>9</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>87</v>
       </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" ht="218.35" customHeight="1">
-      <c r="A90" s="3">
+      <c r="A90" s="6">
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>88</v>
       </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
     </row>
     <row r="91" ht="400.35" customHeight="1">
-      <c r="A91" s="3">
+      <c r="A91" s="6">
         <v>9</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>89</v>
       </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" ht="275.15" customHeight="1">
-      <c r="A92" s="3">
+      <c r="A92" s="6">
         <v>10</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>90</v>
       </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
     </row>
     <row r="93" ht="290" customHeight="1">
-      <c r="A93" s="3">
+      <c r="A93" s="6">
         <v>10</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>91</v>
       </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" ht="376.9" customHeight="1">
-      <c r="A94" s="3">
+      <c r="A94" s="6">
         <v>10</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="10">
         <v>92</v>
       </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
     </row>
     <row r="95" ht="218.35" customHeight="1">
-      <c r="A95" s="3">
+      <c r="A95" s="6">
         <v>10</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>93</v>
       </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
     </row>
     <row r="96" ht="550.55" customHeight="1">
-      <c r="A96" s="3">
+      <c r="A96" s="6">
         <v>10</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="10">
         <v>94</v>
       </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
     </row>
     <row r="97" ht="400.6" customHeight="1">
-      <c r="A97" s="3">
+      <c r="A97" s="6">
         <v>10</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>95</v>
       </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" ht="275.15" customHeight="1">
-      <c r="A98" s="3">
+      <c r="A98" s="6">
         <v>10</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>96</v>
       </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="99" ht="554.35" customHeight="1">
-      <c r="A99" s="3">
+      <c r="A99" s="6">
         <v>10</v>
       </c>
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" ht="288.6" customHeight="1">
-      <c r="A100" s="3">
+      <c r="A100" s="6">
         <v>10</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>98</v>
       </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="9"/>
     </row>
     <row r="101" ht="373.75" customHeight="1">
-      <c r="A101" s="3">
+      <c r="A101" s="6">
         <v>10</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>99</v>
       </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
